--- a/Management/January/Goals__2019-01-24.xlsx
+++ b/Management/January/Goals__2019-01-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\personalorganizer\Management\January\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\project-proposal-blaha_haag_hosic\Management\January\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A39618F-B846-4845-914B-E27298D245A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59DAEF4-DA30-4F43-BC4A-C662D9A538B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{948C3A35-43B2-4131-B068-893BC191C7DB}"/>
   </bookViews>
@@ -76,8 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +433,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,23 +445,23 @@
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -518,5 +527,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>